--- a/lichsugiaoxe.xlsx
+++ b/lichsugiaoxe.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>Mã Hợp Đồng</t>
   </si>
@@ -53,76 +53,34 @@
     <t>Nhân Viên</t>
   </si>
   <si>
-    <t>ádfsdaf</t>
-  </si>
-  <si>
-    <t>ádfdfas</t>
-  </si>
-  <si>
-    <t>adf</t>
-  </si>
-  <si>
-    <t>àddsa</t>
-  </si>
-  <si>
-    <t>fasdf</t>
-  </si>
-  <si>
-    <t>àddsfa</t>
-  </si>
-  <si>
-    <t>360_camera-v2.png</t>
+    <t>Đã kiểm tra và bàn giao đầy đủ giấy tờ liên quan cho khách.</t>
+  </si>
+  <si>
+    <t>Hoạt Động Tốt, Không Có Bất Cứ Vấn Đề Gì</t>
+  </si>
+  <si>
+    <t>Nguyên Vẹn, Không Trầy Xước</t>
+  </si>
+  <si>
+    <t>Nguyên Vẹn, Không Hư Hỏng</t>
+  </si>
+  <si>
+    <t>Đã Bàn Giao Cho Khách (Giấy tờ xe, bảo hiểm xe)</t>
+  </si>
+  <si>
+    <t>anhtruoc.jpg</t>
+  </si>
+  <si>
+    <t>anhphai.jpg</t>
+  </si>
+  <si>
+    <t>anhtrai.jpg</t>
   </si>
   <si>
     <t>anhsau.jpg</t>
   </si>
   <si>
-    <t>alepay.png</t>
-  </si>
-  <si>
-    <t>airbags-v2.png</t>
-  </si>
-  <si>
-    <t>luan</t>
-  </si>
-  <si>
-    <t>àds</t>
-  </si>
-  <si>
-    <t>ád</t>
-  </si>
-  <si>
-    <t>àd</t>
-  </si>
-  <si>
-    <t>ádfa</t>
-  </si>
-  <si>
-    <t>fdsa</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>qư</t>
-  </si>
-  <si>
-    <t>qưe</t>
-  </si>
-  <si>
-    <t>ẻqwer</t>
-  </si>
-  <si>
-    <t>qẻqe</t>
-  </si>
-  <si>
-    <t>rew</t>
-  </si>
-  <si>
-    <t>qrqwerqw</t>
-  </si>
-  <si>
-    <t>qưerqwerqw</t>
+    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -167,7 +125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -219,7 +177,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>45345.0</v>
+        <v>45346.0</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -231,28 +189,28 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -260,40 +218,40 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>45184.0</v>
+        <v>45345.0</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -301,81 +259,40 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>45184.0</v>
+        <v>45345.0</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>45184.0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
